--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12223,6 +12223,171 @@
       <c r="I386" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>387.58</v>
+      </c>
+      <c r="C387" t="n">
+        <v>367.37</v>
+      </c>
+      <c r="D387" t="n">
+        <v>381.92</v>
+      </c>
+      <c r="E387" t="n">
+        <v>376.8043478260869</v>
+      </c>
+      <c r="F387" t="n">
+        <v>382.55</v>
+      </c>
+      <c r="G387" t="n">
+        <v>390.67</v>
+      </c>
+      <c r="H387" t="n">
+        <v>387.4833333333333</v>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>397.8066666666667</v>
+      </c>
+      <c r="C388" t="n">
+        <v>373.7361904761905</v>
+      </c>
+      <c r="D388" t="n">
+        <v>384.8961904761905</v>
+      </c>
+      <c r="E388" t="n">
+        <v>383.8191304347826</v>
+      </c>
+      <c r="F388" t="n">
+        <v>387.08</v>
+      </c>
+      <c r="G388" t="n">
+        <v>396.9361904761905</v>
+      </c>
+      <c r="H388" t="n">
+        <v>388.4688888888889</v>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>384.9466666666667</v>
+      </c>
+      <c r="C389" t="n">
+        <v>359.6804761904762</v>
+      </c>
+      <c r="D389" t="n">
+        <v>377.2004761904762</v>
+      </c>
+      <c r="E389" t="n">
+        <v>378.9382608695652</v>
+      </c>
+      <c r="F389" t="n">
+        <v>377.55</v>
+      </c>
+      <c r="G389" t="n">
+        <v>394.5804761904762</v>
+      </c>
+      <c r="H389" t="n">
+        <v>387.8755555555555</v>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>380.0166666666667</v>
+      </c>
+      <c r="C390" t="n">
+        <v>370.5704761904762</v>
+      </c>
+      <c r="D390" t="n">
+        <v>375.9404761904762</v>
+      </c>
+      <c r="E390" t="n">
+        <v>381.0839130434783</v>
+      </c>
+      <c r="F390" t="n">
+        <v>383.01</v>
+      </c>
+      <c r="G390" t="n">
+        <v>393.6104761904762</v>
+      </c>
+      <c r="H390" t="n">
+        <v>386.5522222222222</v>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>397.16</v>
+      </c>
+      <c r="C391" t="n">
+        <v>381.9785714285715</v>
+      </c>
+      <c r="D391" t="n">
+        <v>370.7585714285714</v>
+      </c>
+      <c r="E391" t="n">
+        <v>368.6882608695652</v>
+      </c>
+      <c r="F391" t="n">
+        <v>381.12</v>
+      </c>
+      <c r="G391" t="n">
+        <v>390.7285714285715</v>
+      </c>
+      <c r="H391" t="n">
+        <v>380.5833333333333</v>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12402,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B442"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16665,6 +16830,56 @@
       </c>
       <c r="B442" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
@@ -16833,28 +17048,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2026572984623968</v>
+        <v>0.2045822251497318</v>
       </c>
       <c r="J2" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01720637689876303</v>
+        <v>0.01804952811204252</v>
       </c>
       <c r="M2" t="n">
-        <v>8.905794270775834</v>
+        <v>8.863503960762241</v>
       </c>
       <c r="N2" t="n">
-        <v>135.1490634101407</v>
+        <v>133.8203971311594</v>
       </c>
       <c r="O2" t="n">
-        <v>11.62536293670614</v>
+        <v>11.56807663923262</v>
       </c>
       <c r="P2" t="n">
-        <v>383.7211414856317</v>
+        <v>383.7041949877962</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16910,28 +17125,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1674869929094778</v>
+        <v>0.163422682391325</v>
       </c>
       <c r="J3" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02612093234370583</v>
+        <v>0.02539167040147361</v>
       </c>
       <c r="M3" t="n">
-        <v>6.114654766601749</v>
+        <v>6.112220850842633</v>
       </c>
       <c r="N3" t="n">
-        <v>60.90355590682161</v>
+        <v>60.82072414868755</v>
       </c>
       <c r="O3" t="n">
-        <v>7.80407303315529</v>
+        <v>7.79876427061926</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8233674867362</v>
+        <v>367.8588389587149</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16987,28 +17202,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06470642488959377</v>
+        <v>0.05576137762694611</v>
       </c>
       <c r="J4" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K4" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003508765388451796</v>
+        <v>0.002680452425978364</v>
       </c>
       <c r="M4" t="n">
-        <v>6.273740536058426</v>
+        <v>6.255243484567683</v>
       </c>
       <c r="N4" t="n">
-        <v>68.62991511463915</v>
+        <v>68.08965594141138</v>
       </c>
       <c r="O4" t="n">
-        <v>8.284317419959182</v>
+        <v>8.251645650499746</v>
       </c>
       <c r="P4" t="n">
-        <v>379.5249369667488</v>
+        <v>379.6037763129908</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -17064,28 +17279,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07517017439395157</v>
+        <v>0.05955685505555197</v>
       </c>
       <c r="J5" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K5" t="n">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006690352665352117</v>
+        <v>0.004285758796870542</v>
       </c>
       <c r="M5" t="n">
-        <v>5.352060916426518</v>
+        <v>5.356082830949179</v>
       </c>
       <c r="N5" t="n">
-        <v>48.05285857907356</v>
+        <v>48.12025837235449</v>
       </c>
       <c r="O5" t="n">
-        <v>6.932016919993312</v>
+        <v>6.936876701538992</v>
       </c>
       <c r="P5" t="n">
-        <v>381.1834267570232</v>
+        <v>381.3226579579471</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -17141,28 +17356,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1797515547419335</v>
+        <v>0.1605662450718643</v>
       </c>
       <c r="J6" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02799283083804416</v>
+        <v>0.02301152485486946</v>
       </c>
       <c r="M6" t="n">
-        <v>6.474753053072379</v>
+        <v>6.481559993752173</v>
       </c>
       <c r="N6" t="n">
-        <v>63.37797719524698</v>
+        <v>63.13749047308103</v>
       </c>
       <c r="O6" t="n">
-        <v>7.961028651829296</v>
+        <v>7.945910298580084</v>
       </c>
       <c r="P6" t="n">
-        <v>384.028789628847</v>
+        <v>384.1982419521627</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -17218,28 +17433,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2050085643805639</v>
+        <v>0.1985793351067498</v>
       </c>
       <c r="J7" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03554539382829558</v>
+        <v>0.03451920279987486</v>
       </c>
       <c r="M7" t="n">
-        <v>6.407579820456879</v>
+        <v>6.352673872861543</v>
       </c>
       <c r="N7" t="n">
-        <v>64.85468266839909</v>
+        <v>63.99330971359633</v>
       </c>
       <c r="O7" t="n">
-        <v>8.053240507298854</v>
+        <v>7.999581846171481</v>
       </c>
       <c r="P7" t="n">
-        <v>390.2016178354056</v>
+        <v>390.2590596575255</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -17295,28 +17510,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01634273299113629</v>
+        <v>0.01688575006730619</v>
       </c>
       <c r="J8" t="n">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K8" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001430119347695102</v>
+        <v>0.0001582354958957755</v>
       </c>
       <c r="M8" t="n">
-        <v>8.044562731393235</v>
+        <v>7.948236859180744</v>
       </c>
       <c r="N8" t="n">
-        <v>105.6341032931862</v>
+        <v>103.9898154287057</v>
       </c>
       <c r="O8" t="n">
-        <v>10.27784526509259</v>
+        <v>10.19753967526999</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5948860976027</v>
+        <v>385.5902185308267</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -17353,7 +17568,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I386"/>
+  <dimension ref="A1:I391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33579,6 +33794,241 @@
         </is>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-03 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>-34.81159914285782,173.3864624634289</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>-34.81111633908869,173.3871690838562</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>-34.81051287523469,173.38765998569292</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>-34.80993355789099,173.38815871115</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>-34.809279320301904,173.3885393024569</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>-34.80862030245143,173.38879749887357</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>-34.807936482037675,173.38897781406385</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>-34.811544745124415,173.38637217418395</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>-34.81107944517465,173.38711575654807</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>-34.81049649880741,173.38763420594148</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>-34.80990158621803,173.38809253368171</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>-34.80926112609164,173.3884949587663</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>-34.80860412327471,173.38873185808887</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>-34.8079349686086,173.38896719631893</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-19 22:17:37+00:00</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>-34.811613150085826,173.3864857126343</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>-34.81116090207007,173.38723349631923</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>-34.8105388443066,173.38770086621244</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>-34.80992383203822,173.3881385798062</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>-34.809299402192714,173.38858824695023</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>-34.80861020568539,173.38875653511013</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>-34.80793587973737,173.38897358851256</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:17:45+00:00</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>-34.811639373732135,173.3865292386995</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>-34.811097791407015,173.38714227460218</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>-34.810545777425425,173.38771178033787</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>-34.80991405267797,173.3881183377201</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>-34.80927747276696,173.3885347995647</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>-34.808612710205985,173.38876669623758</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>-34.80793791186046,173.38898784525946</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:17:39+00:00</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>-34.811548184878795,173.3863778834743</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>-34.81103167815893,173.3870467131317</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>-34.8105742907177,173.38775666603863</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>-34.80997054899577,173.3882352783884</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>-34.809285063724715,173.3885533005796</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>-34.80862015122137,173.38879688531495</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>-34.80794707772146,173.38905215025918</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -16893,7 +16893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16984,35 +16984,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -17071,27 +17076,28 @@
       <c r="P2" t="n">
         <v>383.7041949877962</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.38988441889134 -34.81366070989444, 173.38169026753704 -34.80872378477515)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.3898844188913</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-34.81366070989444</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.381690267537</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-34.80872378477515</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.3857873432142</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-34.81119224733479</v>
       </c>
     </row>
@@ -17148,27 +17154,28 @@
       <c r="P3" t="n">
         <v>367.8588389587149</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.39024649179245 -34.8132453139324, 173.38247282055363 -34.80786706319997)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.3902464917925</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-34.8132453139324</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.3824728205536</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-34.80786706319997</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.3863596561731</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-34.81055618856618</v>
       </c>
     </row>
@@ -17225,27 +17232,28 @@
       <c r="P4" t="n">
         <v>379.6037763129908</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.39096825985325 -34.81261433598265, 173.38292921468516 -34.80750748067504)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.3909682598533</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-34.81261433598265</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.3829292146852</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-34.80750748067504</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.3869487372692</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-34.81006090832885</v>
       </c>
     </row>
@@ -17302,27 +17310,28 @@
       <c r="P5" t="n">
         <v>381.3226579579471</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.39171355864175 -34.81165088682402, 173.38295635110677 -34.80742000622818)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.3917135586418</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-34.81165088682402</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.3829563511068</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-34.80742000622818</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.3873349548743</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-34.8095354465261</v>
       </c>
     </row>
@@ -17379,27 +17388,28 @@
       <c r="P6" t="n">
         <v>384.1982419521627</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.39228411382078 -34.81081572825174, 173.3831966016224 -34.80708703601946)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.3922841138208</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-34.81081572825174</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.3831966016224</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-34.80708703601946</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.3877403577216</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-34.8089513821356</v>
       </c>
     </row>
@@ -17456,27 +17466,28 @@
       <c r="P7" t="n">
         <v>390.2590596575255</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.3928899692556 -34.80962893412616, 173.38316326962774 -34.807231422094375)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.3928899692556</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-34.80962893412616</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.3831632696277</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-34.80723142209438</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.3880266194417</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-34.80843017811027</v>
       </c>
     </row>
@@ -17533,27 +17544,28 @@
       <c r="P8" t="n">
         <v>385.5902185308267</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (173.39315234094374 -34.80853143334986, 173.38314806589608 -34.80710537509382)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>173.3931523409437</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-34.80853143334986</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>173.3831480658961</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-34.80710537509382</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>173.3881502034199</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-34.80781840422184</v>
       </c>
     </row>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12388,6 +12388,126 @@
       <c r="I391" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>391.3433333333334</v>
+      </c>
+      <c r="C392" t="n">
+        <v>373.6138095238095</v>
+      </c>
+      <c r="D392" t="n">
+        <v>387.9738095238095</v>
+      </c>
+      <c r="E392" t="n">
+        <v>381.0530434782609</v>
+      </c>
+      <c r="F392" t="n">
+        <v>387.47</v>
+      </c>
+      <c r="G392" t="n">
+        <v>392.8138095238096</v>
+      </c>
+      <c r="H392" t="n">
+        <v>381.7877777777778</v>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>381.9366666666667</v>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>391.51</v>
+      </c>
+      <c r="C394" t="n">
+        <v>376.7371428571428</v>
+      </c>
+      <c r="D394" t="n">
+        <v>388.5171428571429</v>
+      </c>
+      <c r="E394" t="n">
+        <v>386.1343478260869</v>
+      </c>
+      <c r="F394" t="n">
+        <v>395.33</v>
+      </c>
+      <c r="G394" t="n">
+        <v>392.5471428571428</v>
+      </c>
+      <c r="H394" t="n">
+        <v>390.09</v>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>394.3533333333334</v>
+      </c>
+      <c r="C395" t="n">
+        <v>378.8809523809524</v>
+      </c>
+      <c r="D395" t="n">
+        <v>388.4809523809524</v>
+      </c>
+      <c r="E395" t="n">
+        <v>383.7617391304348</v>
+      </c>
+      <c r="F395" t="n">
+        <v>382.55</v>
+      </c>
+      <c r="G395" t="n">
+        <v>389.8209523809524</v>
+      </c>
+      <c r="H395" t="n">
+        <v>374.5511111111111</v>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -12402,7 +12522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16880,6 +17000,46 @@
       </c>
       <c r="B447" t="n">
         <v>-0.06</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -17053,28 +17213,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2045822251497318</v>
+        <v>0.2065913930146102</v>
       </c>
       <c r="J2" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K2" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01804952811204252</v>
+        <v>0.01887121907195966</v>
       </c>
       <c r="M2" t="n">
-        <v>8.863503960762241</v>
+        <v>8.806815339090839</v>
       </c>
       <c r="N2" t="n">
-        <v>133.8203971311594</v>
+        <v>132.4679919081611</v>
       </c>
       <c r="O2" t="n">
-        <v>11.56807663923262</v>
+        <v>11.50947400658089</v>
       </c>
       <c r="P2" t="n">
-        <v>383.7041949877962</v>
+        <v>383.686160939537</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17131,28 +17291,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.163422682391325</v>
+        <v>0.1711142137752256</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02539167040147361</v>
+        <v>0.02823139577161893</v>
       </c>
       <c r="M3" t="n">
-        <v>6.112220850842633</v>
+        <v>6.097065263251347</v>
       </c>
       <c r="N3" t="n">
-        <v>60.82072414868755</v>
+        <v>60.47269449649755</v>
       </c>
       <c r="O3" t="n">
-        <v>7.79876427061926</v>
+        <v>7.776419130711612</v>
       </c>
       <c r="P3" t="n">
-        <v>367.8588389587149</v>
+        <v>367.7899052481065</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17209,28 +17369,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05576137762694611</v>
+        <v>0.0685020008345865</v>
       </c>
       <c r="J4" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002680452425978364</v>
+        <v>0.004095915083896728</v>
       </c>
       <c r="M4" t="n">
-        <v>6.255243484567683</v>
+        <v>6.258010822923524</v>
       </c>
       <c r="N4" t="n">
-        <v>68.08965594141138</v>
+        <v>67.94258719278123</v>
       </c>
       <c r="O4" t="n">
-        <v>8.251645650499746</v>
+        <v>8.242729353362346</v>
       </c>
       <c r="P4" t="n">
-        <v>379.6037763129908</v>
+        <v>379.4905954502224</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17287,28 +17447,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05955685505555197</v>
+        <v>0.06098390331457641</v>
       </c>
       <c r="J5" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004285758796870542</v>
+        <v>0.004582002676618679</v>
       </c>
       <c r="M5" t="n">
-        <v>5.356082830949179</v>
+        <v>5.324862201693989</v>
       </c>
       <c r="N5" t="n">
-        <v>48.12025837235449</v>
+        <v>47.72519693931178</v>
       </c>
       <c r="O5" t="n">
-        <v>6.936876701538992</v>
+        <v>6.908342560941212</v>
       </c>
       <c r="P5" t="n">
-        <v>381.3226579579471</v>
+        <v>381.3097614127298</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17365,28 +17525,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1605662450718643</v>
+        <v>0.1607822774882521</v>
       </c>
       <c r="J6" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K6" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02301152485486946</v>
+        <v>0.02347015409136277</v>
       </c>
       <c r="M6" t="n">
-        <v>6.481559993752173</v>
+        <v>6.463947026209805</v>
       </c>
       <c r="N6" t="n">
-        <v>63.13749047308103</v>
+        <v>62.81899583214735</v>
       </c>
       <c r="O6" t="n">
-        <v>7.945910298580084</v>
+        <v>7.925843540731003</v>
       </c>
       <c r="P6" t="n">
-        <v>384.1982419521627</v>
+        <v>384.1964662337303</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17443,28 +17603,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1985793351067498</v>
+        <v>0.1919745022385048</v>
       </c>
       <c r="J7" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03451920279987486</v>
+        <v>0.03293934796060183</v>
       </c>
       <c r="M7" t="n">
-        <v>6.352673872861543</v>
+        <v>6.329214401677704</v>
       </c>
       <c r="N7" t="n">
-        <v>63.99330971359633</v>
+        <v>63.53288859771352</v>
       </c>
       <c r="O7" t="n">
-        <v>7.999581846171481</v>
+        <v>7.970752072277341</v>
       </c>
       <c r="P7" t="n">
-        <v>390.2590596575255</v>
+        <v>390.31880568268</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17521,28 +17681,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01688575006730619</v>
+        <v>0.009364324167859173</v>
       </c>
       <c r="J8" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K8" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001582354958957755</v>
+        <v>4.949150784727685e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>7.948236859180744</v>
+        <v>7.936971787132324</v>
       </c>
       <c r="N8" t="n">
-        <v>103.9898154287057</v>
+        <v>103.4971641044952</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19753967526999</v>
+        <v>10.17335559707293</v>
       </c>
       <c r="P8" t="n">
-        <v>385.5902185308267</v>
+        <v>385.6596739725832</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17580,7 +17740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I391"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34041,6 +34201,170 @@
         </is>
       </c>
     </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:17:26+00:00</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>-34.8115791249254,173.3864292376793</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>-34.81108015440787,173.38711678168926</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>-34.81047956426563,173.38760754762683</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>-34.80991419337396,173.38811862894357</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>-34.80925955970192,173.38849114109848</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>-34.80861476718272,173.38877504163136</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>-34.8079452281722,173.38903917434226</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:17:32+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-34.811629160873785,173.38651228736862</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr"/>
+      <c r="D393" t="inlineStr"/>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-34.81157823839142,173.38642776621157</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-34.811062053779835,173.38709061865626</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-34.8104765745834,173.3876028412784</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-34.809891034012274,173.38807069192902</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-34.80922799089853,173.38841420043917</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-34.80861545571039,173.3887778350687</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-34.807932479211956,173.388949731506</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:17:17+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-34.811563114118954,173.38640266297702</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-34.81104962977478,173.38707266074636</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-34.81047677372088,173.38760315475997</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-34.80990184779378,173.38809307511116</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-34.809279320301904,173.3885393024569</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-34.80862249467244,173.3888063929799</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-34.80795634080284,173.3891171375859</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12506,6 +12506,72 @@
         <v>374.5511111111111</v>
       </c>
       <c r="I395" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>397.9766666666667</v>
+      </c>
+      <c r="C396" t="n">
+        <v>379.5847619047619</v>
+      </c>
+      <c r="D396" t="n">
+        <v>394.4047619047619</v>
+      </c>
+      <c r="E396" t="n">
+        <v>387.3991304347826</v>
+      </c>
+      <c r="F396" t="n">
+        <v>387.27</v>
+      </c>
+      <c r="G396" t="n">
+        <v>392.7647619047619</v>
+      </c>
+      <c r="H396" t="n">
+        <v>371.5922222222222</v>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>405.7133333333333</v>
+      </c>
+      <c r="C397" t="n">
+        <v>382.9852380952381</v>
+      </c>
+      <c r="D397" t="n">
+        <v>393.9852380952381</v>
+      </c>
+      <c r="E397" t="n">
+        <v>389.6608695652174</v>
+      </c>
+      <c r="F397" t="n">
+        <v>386.99</v>
+      </c>
+      <c r="G397" t="n">
+        <v>394.4352380952381</v>
+      </c>
+      <c r="H397" t="n">
+        <v>377.0077777777778</v>
+      </c>
+      <c r="I397" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12522,7 +12588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17040,6 +17106,46 @@
       </c>
       <c r="B451" t="n">
         <v>-0.17</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -17213,28 +17319,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2065913930146102</v>
+        <v>0.2215685520974403</v>
       </c>
       <c r="J2" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01887121907195966</v>
+        <v>0.02176507253787996</v>
       </c>
       <c r="M2" t="n">
-        <v>8.806815339090839</v>
+        <v>8.816950038366608</v>
       </c>
       <c r="N2" t="n">
-        <v>132.4679919081611</v>
+        <v>132.7345122643068</v>
       </c>
       <c r="O2" t="n">
-        <v>11.50947400658089</v>
+        <v>11.5210464917171</v>
       </c>
       <c r="P2" t="n">
-        <v>383.686160939537</v>
+        <v>383.5520138899814</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17291,28 +17397,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1711142137752256</v>
+        <v>0.1816716270623652</v>
       </c>
       <c r="J3" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K3" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02823139577161893</v>
+        <v>0.03186249217588522</v>
       </c>
       <c r="M3" t="n">
-        <v>6.097065263251347</v>
+        <v>6.115647583289226</v>
       </c>
       <c r="N3" t="n">
-        <v>60.47269449649755</v>
+        <v>60.61595572358203</v>
       </c>
       <c r="O3" t="n">
-        <v>7.776419130711612</v>
+        <v>7.785624941106656</v>
       </c>
       <c r="P3" t="n">
-        <v>367.7899052481065</v>
+        <v>367.6948429650966</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17369,28 +17475,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0685020008345865</v>
+        <v>0.08343567382892761</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K4" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004095915083896728</v>
+        <v>0.006060247219095483</v>
       </c>
       <c r="M4" t="n">
-        <v>6.258010822923524</v>
+        <v>6.293785346065168</v>
       </c>
       <c r="N4" t="n">
-        <v>67.94258719278123</v>
+        <v>68.51418753386277</v>
       </c>
       <c r="O4" t="n">
-        <v>8.242729353362346</v>
+        <v>8.277329734513588</v>
       </c>
       <c r="P4" t="n">
-        <v>379.4905954502224</v>
+        <v>379.3571579407863</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17447,28 +17553,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06098390331457641</v>
+        <v>0.06760522396709381</v>
       </c>
       <c r="J5" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004582002676618679</v>
+        <v>0.00567850579003204</v>
       </c>
       <c r="M5" t="n">
-        <v>5.324862201693989</v>
+        <v>5.324801760957786</v>
       </c>
       <c r="N5" t="n">
-        <v>47.72519693931178</v>
+        <v>47.63338948364245</v>
       </c>
       <c r="O5" t="n">
-        <v>6.908342560941212</v>
+        <v>6.90169468200691</v>
       </c>
       <c r="P5" t="n">
-        <v>381.3097614127298</v>
+        <v>381.2497160101133</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17525,28 +17631,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1607822774882521</v>
+        <v>0.159346311832125</v>
       </c>
       <c r="J6" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K6" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02347015409136277</v>
+        <v>0.0233805027296462</v>
       </c>
       <c r="M6" t="n">
-        <v>6.463947026209805</v>
+        <v>6.433347874135687</v>
       </c>
       <c r="N6" t="n">
-        <v>62.81899583214735</v>
+        <v>62.45258821736473</v>
       </c>
       <c r="O6" t="n">
-        <v>7.925843540731003</v>
+        <v>7.902694997111095</v>
       </c>
       <c r="P6" t="n">
-        <v>384.1964662337303</v>
+        <v>384.2093766202765</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17603,28 +17709,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1919745022385048</v>
+        <v>0.1899785923424547</v>
       </c>
       <c r="J7" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K7" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03293934796060183</v>
+        <v>0.03271067078191714</v>
       </c>
       <c r="M7" t="n">
-        <v>6.329214401677704</v>
+        <v>6.300947542597972</v>
       </c>
       <c r="N7" t="n">
-        <v>63.53288859771352</v>
+        <v>63.16169513109863</v>
       </c>
       <c r="O7" t="n">
-        <v>7.970752072277341</v>
+        <v>7.947433241688704</v>
       </c>
       <c r="P7" t="n">
-        <v>390.31880568268</v>
+        <v>390.3369403690689</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17681,28 +17787,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009364324167859173</v>
+        <v>-0.005375890012354865</v>
       </c>
       <c r="J8" t="n">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K8" t="n">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L8" t="n">
-        <v>4.949150784727685e-05</v>
+        <v>1.640246466039219e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>7.936971787132324</v>
+        <v>7.965728053000165</v>
       </c>
       <c r="N8" t="n">
-        <v>103.4971641044952</v>
+        <v>103.7336617635204</v>
       </c>
       <c r="O8" t="n">
-        <v>10.17335559707293</v>
+        <v>10.18497234966892</v>
       </c>
       <c r="P8" t="n">
-        <v>385.6596739725832</v>
+        <v>385.7961115845061</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17740,7 +17846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34365,6 +34471,100 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:16:59+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-34.811543840859024,173.3863706732881</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-34.81104555099153,173.38706676519203</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-34.810444178050055,173.38755184279742</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-34.809885269434716,173.38805875997667</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-34.80926036297871,173.38849309887684</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-34.80861489382264,173.3887755554243</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-34.80796088446035,173.38914901477867</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-20 22:17:06+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-34.811502687899115,173.38630236784758</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-34.81102584422753,173.38703828065795</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-34.810446486474085,173.38755547670596</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-34.80987496096409,173.388037422746</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-34.80926148756618,173.3884958397666</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-34.80861058068731,173.38875805653566</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-34.807952568349315,173.38909067101955</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12572,6 +12572,39 @@
         <v>377.0077777777778</v>
       </c>
       <c r="I397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>390.8</v>
+      </c>
+      <c r="C398" t="n">
+        <v>369.8542857142857</v>
+      </c>
+      <c r="D398" t="n">
+        <v>380.2542857142857</v>
+      </c>
+      <c r="E398" t="n">
+        <v>374.7708695652174</v>
+      </c>
+      <c r="F398" t="n">
+        <v>372.39</v>
+      </c>
+      <c r="G398" t="n">
+        <v>379.6842857142857</v>
+      </c>
+      <c r="H398" t="n">
+        <v>359.8666666666667</v>
+      </c>
+      <c r="I398" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12588,7 +12621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B455"/>
+  <dimension ref="A1:B456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17146,6 +17179,16 @@
       </c>
       <c r="B455" t="n">
         <v>0.86</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>-0.66</v>
       </c>
     </row>
   </sheetData>
@@ -17319,28 +17362,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2215685520974403</v>
+        <v>0.222456792339856</v>
       </c>
       <c r="J2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02176507253787996</v>
+        <v>0.02208109878176623</v>
       </c>
       <c r="M2" t="n">
-        <v>8.816950038366608</v>
+        <v>8.794119632973933</v>
       </c>
       <c r="N2" t="n">
-        <v>132.7345122643068</v>
+        <v>132.341702423613</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5210464917171</v>
+        <v>11.5039863709765</v>
       </c>
       <c r="P2" t="n">
-        <v>383.5520138899814</v>
+        <v>383.5440378237136</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17397,28 +17440,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1816716270623652</v>
+        <v>0.1802110652509573</v>
       </c>
       <c r="J3" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03186249217588522</v>
+        <v>0.03156222478977144</v>
       </c>
       <c r="M3" t="n">
-        <v>6.115647583289226</v>
+        <v>6.104594348508304</v>
       </c>
       <c r="N3" t="n">
-        <v>60.61595572358203</v>
+        <v>60.45044563075378</v>
       </c>
       <c r="O3" t="n">
-        <v>7.785624941106656</v>
+        <v>7.774988464991686</v>
       </c>
       <c r="P3" t="n">
-        <v>367.6948429650966</v>
+        <v>367.708029480864</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17475,28 +17518,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08343567382892761</v>
+        <v>0.08271479298424882</v>
       </c>
       <c r="J4" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006060247219095483</v>
+        <v>0.00599631825861513</v>
       </c>
       <c r="M4" t="n">
-        <v>6.293785346065168</v>
+        <v>6.278995049135036</v>
       </c>
       <c r="N4" t="n">
-        <v>68.51418753386277</v>
+        <v>68.31610231204579</v>
       </c>
       <c r="O4" t="n">
-        <v>8.277329734513588</v>
+        <v>8.26535554662023</v>
       </c>
       <c r="P4" t="n">
-        <v>379.3571579407863</v>
+        <v>379.3636166312931</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17553,28 +17596,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06760522396709381</v>
+        <v>0.06281202200669354</v>
       </c>
       <c r="J5" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00567850579003204</v>
+        <v>0.004917922474366732</v>
       </c>
       <c r="M5" t="n">
-        <v>5.324801760957786</v>
+        <v>5.334661293369941</v>
       </c>
       <c r="N5" t="n">
-        <v>47.63338948364245</v>
+        <v>47.69178347477128</v>
       </c>
       <c r="O5" t="n">
-        <v>6.90169468200691</v>
+        <v>6.905923795899523</v>
       </c>
       <c r="P5" t="n">
-        <v>381.2497160101133</v>
+        <v>381.2932958376869</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17631,28 +17674,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.159346311832125</v>
+        <v>0.1499142568000182</v>
       </c>
       <c r="J6" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0233805027296462</v>
+        <v>0.02065033819908146</v>
       </c>
       <c r="M6" t="n">
-        <v>6.433347874135687</v>
+        <v>6.466524160022965</v>
       </c>
       <c r="N6" t="n">
-        <v>62.45258821736473</v>
+        <v>63.01453371079354</v>
       </c>
       <c r="O6" t="n">
-        <v>7.902694997111095</v>
+        <v>7.938169418121128</v>
       </c>
       <c r="P6" t="n">
-        <v>384.2093766202765</v>
+        <v>384.2943921079011</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17709,28 +17752,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1899785923424547</v>
+        <v>0.1806810338227278</v>
       </c>
       <c r="J7" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03271067078191714</v>
+        <v>0.02954515599827934</v>
       </c>
       <c r="M7" t="n">
-        <v>6.300947542597972</v>
+        <v>6.332218589813546</v>
       </c>
       <c r="N7" t="n">
-        <v>63.16169513109863</v>
+        <v>63.7043529770168</v>
       </c>
       <c r="O7" t="n">
-        <v>7.947433241688704</v>
+        <v>7.981500671992505</v>
       </c>
       <c r="P7" t="n">
-        <v>390.3369403690689</v>
+        <v>390.4216659235486</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17787,28 +17830,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.005375890012354865</v>
+        <v>-0.02167255760817366</v>
       </c>
       <c r="J8" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L8" t="n">
-        <v>1.640246466039219e-05</v>
+        <v>0.0002628924403743627</v>
       </c>
       <c r="M8" t="n">
-        <v>7.965728053000165</v>
+        <v>8.030126256313213</v>
       </c>
       <c r="N8" t="n">
-        <v>103.7336617635204</v>
+        <v>105.5697068502282</v>
       </c>
       <c r="O8" t="n">
-        <v>10.18497234966892</v>
+        <v>10.27471200814058</v>
       </c>
       <c r="P8" t="n">
-        <v>385.7961115845061</v>
+        <v>385.9473875847633</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17846,7 +17889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24885,7 +24928,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>-34.80792093991283,173.38886877570727</t>
+          <t>-34.80792093991284,173.38886877570727</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -28262,7 +28305,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-34.81158307886673,173.38643580042572</t>
+          <t>-34.811583078866725,173.38643580042572</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -34565,6 +34608,53 @@
         </is>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:17:00+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-34.81158201502605,173.3864340346643</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-34.811101941937714,173.38714827387477</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-34.81052204079108,173.38767441410863</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-34.809942825983505,173.38817789499606</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-34.809320126683154,173.38863875769212</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-34.80864866725695,173.38891257856872</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-34.807978890092485,173.38927533851296</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12605,6 +12605,72 @@
         <v>359.8666666666667</v>
       </c>
       <c r="I398" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>403.7366666666666</v>
+      </c>
+      <c r="C399" t="n">
+        <v>385.5133333333333</v>
+      </c>
+      <c r="D399" t="n">
+        <v>391.6533333333333</v>
+      </c>
+      <c r="E399" t="n">
+        <v>391.2195652173913</v>
+      </c>
+      <c r="F399" t="n">
+        <v>385.86</v>
+      </c>
+      <c r="G399" t="n">
+        <v>396.9833333333333</v>
+      </c>
+      <c r="H399" t="n">
+        <v>380.4922222222222</v>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>388.0566666666666</v>
+      </c>
+      <c r="C400" t="n">
+        <v>367.137619047619</v>
+      </c>
+      <c r="D400" t="n">
+        <v>376.7076190476191</v>
+      </c>
+      <c r="E400" t="n">
+        <v>380.9660869565217</v>
+      </c>
+      <c r="F400" t="n">
+        <v>377.36</v>
+      </c>
+      <c r="G400" t="n">
+        <v>382.367619047619</v>
+      </c>
+      <c r="H400" t="n">
+        <v>367.8855555555555</v>
+      </c>
+      <c r="I400" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12621,7 +12687,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B456"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17189,6 +17255,26 @@
       </c>
       <c r="B456" t="n">
         <v>-0.66</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -17362,28 +17448,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.222456792339856</v>
+        <v>0.2299861217180265</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02208109878176623</v>
+        <v>0.02376541713567426</v>
       </c>
       <c r="M2" t="n">
-        <v>8.794119632973933</v>
+        <v>8.780966063666799</v>
       </c>
       <c r="N2" t="n">
-        <v>132.341702423613</v>
+        <v>132.1737913635107</v>
       </c>
       <c r="O2" t="n">
-        <v>11.5039863709765</v>
+        <v>11.49668610354787</v>
       </c>
       <c r="P2" t="n">
-        <v>383.5440378237136</v>
+        <v>383.4763614835297</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17440,28 +17526,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1802110652509573</v>
+        <v>0.1847045138683728</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03156222478977144</v>
+        <v>0.03320469302072759</v>
       </c>
       <c r="M3" t="n">
-        <v>6.104594348508304</v>
+        <v>6.123645886727181</v>
       </c>
       <c r="N3" t="n">
-        <v>60.45044563075378</v>
+        <v>60.68923230138039</v>
       </c>
       <c r="O3" t="n">
-        <v>7.774988464991686</v>
+        <v>7.790329409041725</v>
       </c>
       <c r="P3" t="n">
-        <v>367.708029480864</v>
+        <v>367.6674465507997</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17518,28 +17604,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08271479298424882</v>
+        <v>0.08573396883058779</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00599631825861513</v>
+        <v>0.006489887054357157</v>
       </c>
       <c r="M4" t="n">
-        <v>6.278995049135036</v>
+        <v>6.285542525631682</v>
       </c>
       <c r="N4" t="n">
-        <v>68.31610231204579</v>
+        <v>68.2842612189113</v>
       </c>
       <c r="O4" t="n">
-        <v>8.26535554662023</v>
+        <v>8.263429144060673</v>
       </c>
       <c r="P4" t="n">
-        <v>379.3636166312931</v>
+        <v>379.3365642075274</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17596,28 +17682,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06281202200669354</v>
+        <v>0.06644921178664441</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004917922474366732</v>
+        <v>0.005548921794930828</v>
       </c>
       <c r="M5" t="n">
-        <v>5.334661293369941</v>
+        <v>5.332543720262626</v>
       </c>
       <c r="N5" t="n">
-        <v>47.69178347477128</v>
+        <v>47.62270089020911</v>
       </c>
       <c r="O5" t="n">
-        <v>6.905923795899523</v>
+        <v>6.900920292990574</v>
       </c>
       <c r="P5" t="n">
-        <v>381.2932958376869</v>
+        <v>381.2602022527824</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17674,28 +17760,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1499142568000182</v>
+        <v>0.1422755533614115</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02065033819908146</v>
+        <v>0.01878744515016362</v>
       </c>
       <c r="M6" t="n">
-        <v>6.466524160022965</v>
+        <v>6.470983480913353</v>
       </c>
       <c r="N6" t="n">
-        <v>63.01453371079354</v>
+        <v>62.99807491314292</v>
       </c>
       <c r="O6" t="n">
-        <v>7.938169418121128</v>
+        <v>7.937132663194116</v>
       </c>
       <c r="P6" t="n">
-        <v>384.2943921079011</v>
+        <v>384.3633737480059</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17752,28 +17838,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1806810338227278</v>
+        <v>0.1743095413419233</v>
       </c>
       <c r="J7" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K7" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02954515599827934</v>
+        <v>0.02771014975553387</v>
       </c>
       <c r="M7" t="n">
-        <v>6.332218589813546</v>
+        <v>6.340337468312503</v>
       </c>
       <c r="N7" t="n">
-        <v>63.7043529770168</v>
+        <v>63.81728149048923</v>
       </c>
       <c r="O7" t="n">
-        <v>7.981500671992505</v>
+        <v>7.988571930607449</v>
       </c>
       <c r="P7" t="n">
-        <v>390.4216659235486</v>
+        <v>390.4798628743443</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17830,28 +17916,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02167255760817366</v>
+        <v>-0.03558239040053192</v>
       </c>
       <c r="J8" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K8" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0002628924403743627</v>
+        <v>0.0007111620375764849</v>
       </c>
       <c r="M8" t="n">
-        <v>8.030126256313213</v>
+        <v>8.057437326143685</v>
       </c>
       <c r="N8" t="n">
-        <v>105.5697068502282</v>
+        <v>105.9446515180848</v>
       </c>
       <c r="O8" t="n">
-        <v>10.27471200814058</v>
+        <v>10.29294183011275</v>
       </c>
       <c r="P8" t="n">
-        <v>385.9473875847633</v>
+        <v>386.076759600452</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17889,7 +17975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34655,6 +34741,100 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:17:12+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-34.81151320220926,173.38631981942504</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-34.81101119316441,173.3870171037459</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-34.8104593177462,173.3875756756316</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-34.80986785679669,173.3880227180255</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-34.80926602607925,173.3885069012153</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-34.808604001552666,173.38873136424917</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-34.80794721763194,173.38905313183224</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-21 22:17:14+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-34.811596607371754,173.38645825502923</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-34.81111768580305,173.38717103042953</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-34.81054155624096,173.3877051353429</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-34.80991458970068,173.38811944929145</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-34.80930016530418,173.38859010684143</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-34.808641738975815,173.3888844695853</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-34.807966576390506,173.38918894805985</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12671,6 +12671,105 @@
         <v>367.8855555555555</v>
       </c>
       <c r="I400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>405.2133333333333</v>
+      </c>
+      <c r="C401" t="n">
+        <v>386.6409523809524</v>
+      </c>
+      <c r="D401" t="n">
+        <v>392.1009523809525</v>
+      </c>
+      <c r="E401" t="n">
+        <v>393.2060869565217</v>
+      </c>
+      <c r="F401" t="n">
+        <v>396.06</v>
+      </c>
+      <c r="G401" t="n">
+        <v>383.6409523809524</v>
+      </c>
+      <c r="H401" t="n">
+        <v>372.4444444444445</v>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>393.0366666666667</v>
+      </c>
+      <c r="C402" t="n">
+        <v>372.4590476190476</v>
+      </c>
+      <c r="D402" t="n">
+        <v>391.0990476190476</v>
+      </c>
+      <c r="E402" t="n">
+        <v>382.854347826087</v>
+      </c>
+      <c r="F402" t="n">
+        <v>390.72</v>
+      </c>
+      <c r="G402" t="n">
+        <v>377.5790476190476</v>
+      </c>
+      <c r="H402" t="n">
+        <v>364.0522222222222</v>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>392.2033333333333</v>
+      </c>
+      <c r="C403" t="n">
+        <v>381.3409523809524</v>
+      </c>
+      <c r="D403" t="n">
+        <v>387.5309523809524</v>
+      </c>
+      <c r="E403" t="n">
+        <v>388.9556521739131</v>
+      </c>
+      <c r="F403" t="n">
+        <v>391.86</v>
+      </c>
+      <c r="G403" t="n">
+        <v>391.3209523809524</v>
+      </c>
+      <c r="H403" t="n">
+        <v>374.7677777777778</v>
+      </c>
+      <c r="I403" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12687,7 +12786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17275,6 +17374,46 @@
       </c>
       <c r="B458" t="n">
         <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>-0.87</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>-0.38</v>
       </c>
     </row>
   </sheetData>
@@ -17448,28 +17587,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2299861217180265</v>
+        <v>0.2423177245820305</v>
       </c>
       <c r="J2" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02376541713567426</v>
+        <v>0.02666592801589363</v>
       </c>
       <c r="M2" t="n">
-        <v>8.780966063666799</v>
+        <v>8.754662962613029</v>
       </c>
       <c r="N2" t="n">
-        <v>132.1737913635107</v>
+        <v>131.7844626250997</v>
       </c>
       <c r="O2" t="n">
-        <v>11.49668610354787</v>
+        <v>11.4797414006196</v>
       </c>
       <c r="P2" t="n">
-        <v>383.4763614835297</v>
+        <v>383.3652194157068</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17526,28 +17665,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1847045138683728</v>
+        <v>0.1975263982123762</v>
       </c>
       <c r="J3" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03320469302072759</v>
+        <v>0.03800238142835122</v>
       </c>
       <c r="M3" t="n">
-        <v>6.123645886727181</v>
+        <v>6.140026136464744</v>
       </c>
       <c r="N3" t="n">
-        <v>60.68923230138039</v>
+        <v>60.96967637578733</v>
       </c>
       <c r="O3" t="n">
-        <v>7.790329409041725</v>
+        <v>7.808308163474808</v>
       </c>
       <c r="P3" t="n">
-        <v>367.6674465507997</v>
+        <v>367.5511473568369</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17604,28 +17743,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08573396883058779</v>
+        <v>0.1001015783509436</v>
       </c>
       <c r="J4" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K4" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006489887054357157</v>
+        <v>0.00891124686881728</v>
       </c>
       <c r="M4" t="n">
-        <v>6.285542525631682</v>
+        <v>6.302160970851848</v>
       </c>
       <c r="N4" t="n">
-        <v>68.2842612189113</v>
+        <v>68.36241911426423</v>
       </c>
       <c r="O4" t="n">
-        <v>8.263429144060673</v>
+        <v>8.268156935754439</v>
       </c>
       <c r="P4" t="n">
-        <v>379.3365642075274</v>
+        <v>379.2073194050219</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17682,28 +17821,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06644921178664441</v>
+        <v>0.07545049292090353</v>
       </c>
       <c r="J5" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K5" t="n">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005548921794930828</v>
+        <v>0.007220524292869124</v>
       </c>
       <c r="M5" t="n">
-        <v>5.332543720262626</v>
+        <v>5.332111229119619</v>
       </c>
       <c r="N5" t="n">
-        <v>47.62270089020911</v>
+        <v>47.60776718316387</v>
       </c>
       <c r="O5" t="n">
-        <v>6.900920292990574</v>
+        <v>6.89983819978149</v>
       </c>
       <c r="P5" t="n">
-        <v>381.2602022527824</v>
+        <v>381.1779960251615</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17760,28 +17899,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1422755533614115</v>
+        <v>0.1505087994491027</v>
       </c>
       <c r="J6" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K6" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01878744515016362</v>
+        <v>0.02131620784139332</v>
       </c>
       <c r="M6" t="n">
-        <v>6.470983480913353</v>
+        <v>6.451174952025452</v>
       </c>
       <c r="N6" t="n">
-        <v>62.99807491314292</v>
+        <v>62.68989893959096</v>
       </c>
       <c r="O6" t="n">
-        <v>7.937132663194116</v>
+        <v>7.917695304796148</v>
       </c>
       <c r="P6" t="n">
-        <v>384.3633737480059</v>
+        <v>384.2888690603645</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -17838,28 +17977,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1743095413419233</v>
+        <v>0.1557288850845574</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K7" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02771014975553387</v>
+        <v>0.02222969255336515</v>
       </c>
       <c r="M7" t="n">
-        <v>6.340337468312503</v>
+        <v>6.385794208540179</v>
       </c>
       <c r="N7" t="n">
-        <v>63.81728149048923</v>
+        <v>64.55634056269601</v>
       </c>
       <c r="O7" t="n">
-        <v>7.988571930607449</v>
+        <v>8.034696046690005</v>
       </c>
       <c r="P7" t="n">
-        <v>390.4798628743443</v>
+        <v>390.6498001283952</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -17916,28 +18055,28 @@
         <v>0.1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.03558239040053192</v>
+        <v>-0.06231150774467552</v>
       </c>
       <c r="J8" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K8" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007111620375764849</v>
+        <v>0.002176288052365027</v>
       </c>
       <c r="M8" t="n">
-        <v>8.057437326143685</v>
+        <v>8.138043355245806</v>
       </c>
       <c r="N8" t="n">
-        <v>105.9446515180848</v>
+        <v>107.1741077059149</v>
       </c>
       <c r="O8" t="n">
-        <v>10.29294183011275</v>
+        <v>10.35249282568768</v>
       </c>
       <c r="P8" t="n">
-        <v>386.076759600452</v>
+        <v>386.3259031868647</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -17975,7 +18114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34835,6 +34974,147 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-34.81150534750563,173.3863067822428</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-34.81100465827575,173.38700765810367</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-34.81045685472915,173.38757179836136</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-34.80985880269624,173.3880039772013</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-34.80922505893337,173.38840705455394</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-34.808638451267434,173.38887113091403</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-34.8079595757923,173.38913983347643</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-34.81157011773932,173.38641428756867</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-34.8110868465886,173.38712645471472</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-34.810462367694804,173.38758047684743</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-34.80990598346468,173.3881016354391</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-34.809246506449476,173.38845932720557</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-34.80865410291003,173.388934631778</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-34.80797246281523,173.3892302459732</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:17:27+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-34.811574550409865,173.38642164490616</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-34.81103537334982,173.38705205423085</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-34.810482001079215,173.38761138365163</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-34.809878175178135,173.38804407576123</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-34.80924192776818,173.38844816787318</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-34.808618621707254,173.3887906798928</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-34.80795600809008,173.3891148033568</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12770,6 +12770,33 @@
         <v>374.7677777777778</v>
       </c>
       <c r="I403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>353.23</v>
+      </c>
+      <c r="C404" t="n">
+        <v>343.61</v>
+      </c>
+      <c r="D404" t="n">
+        <v>353.49</v>
+      </c>
+      <c r="E404" t="n">
+        <v>352.3817391304348</v>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12786,7 +12813,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17414,6 +17441,16 @@
       </c>
       <c r="B462" t="n">
         <v>-0.38</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>-0.63</v>
       </c>
     </row>
   </sheetData>
@@ -17587,28 +17624,28 @@
         <v>0.08749999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2423177245820305</v>
+        <v>0.2220156673456767</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02666592801589363</v>
+        <v>0.02198834384475179</v>
       </c>
       <c r="M2" t="n">
-        <v>8.754662962613029</v>
+        <v>8.858289585092576</v>
       </c>
       <c r="N2" t="n">
-        <v>131.7844626250997</v>
+        <v>135.2852306143591</v>
       </c>
       <c r="O2" t="n">
-        <v>11.4797414006196</v>
+        <v>11.63121793340487</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3652194157068</v>
+        <v>383.5493633061431</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -17665,28 +17702,28 @@
         <v>0.1163</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1975263982123762</v>
+        <v>0.181380452144472</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03800238142835122</v>
+        <v>0.03119154099535848</v>
       </c>
       <c r="M3" t="n">
-        <v>6.140026136464744</v>
+        <v>6.205880485782593</v>
       </c>
       <c r="N3" t="n">
-        <v>60.96967637578733</v>
+        <v>63.29477690680438</v>
       </c>
       <c r="O3" t="n">
-        <v>7.808308163474808</v>
+        <v>7.955801462254094</v>
       </c>
       <c r="P3" t="n">
-        <v>367.5511473568369</v>
+        <v>367.6984221418982</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -17743,28 +17780,28 @@
         <v>0.1174</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1001015783509436</v>
+        <v>0.08447783039816546</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00891124686881728</v>
+        <v>0.006195482691174314</v>
       </c>
       <c r="M4" t="n">
-        <v>6.302160970851848</v>
+        <v>6.370158854081513</v>
       </c>
       <c r="N4" t="n">
-        <v>68.36241911426423</v>
+        <v>70.47336270851373</v>
       </c>
       <c r="O4" t="n">
-        <v>8.268156935754439</v>
+        <v>8.394841434387772</v>
       </c>
       <c r="P4" t="n">
-        <v>379.2073194050219</v>
+        <v>379.3486966728397</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -17821,28 +17858,28 @@
         <v>0.1313</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07545049292090353</v>
+        <v>0.0582252473985127</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>0.007220524292869124</v>
+        <v>0.004101312001883128</v>
       </c>
       <c r="M5" t="n">
-        <v>5.332111229119619</v>
+        <v>5.411017607252028</v>
       </c>
       <c r="N5" t="n">
-        <v>47.60776718316387</v>
+        <v>50.24735404399349</v>
       </c>
       <c r="O5" t="n">
-        <v>6.89983819978149</v>
+        <v>7.088536805575146</v>
       </c>
       <c r="P5" t="n">
-        <v>381.1779960251615</v>
+        <v>381.3361791930363</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -17902,7 +17939,7 @@
         <v>0.1505087994491027</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
         <v>341</v>
@@ -17980,7 +18017,7 @@
         <v>0.1557288850845574</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
         <v>330</v>
@@ -18058,7 +18095,7 @@
         <v>-0.06231150774467552</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
         <v>307</v>
@@ -18114,7 +18151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35115,6 +35152,41 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-17 22:11:30+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-34.811781857039605,173.38676573374417</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-34.81125403494576,173.38736811332524</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-34.8106693104479,173.38790624676594</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-34.81004486991653,173.38838911446922</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12793,10 +12793,35 @@
       <c r="E404" t="n">
         <v>352.3817391304348</v>
       </c>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr"/>
+      <c r="F404" t="n">
+        <v>345.48</v>
+      </c>
+      <c r="G404" t="n">
+        <v>338.17</v>
+      </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="n">
+        <v>370.74</v>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -12813,7 +12838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17451,6 +17476,16 @@
       </c>
       <c r="B463" t="n">
         <v>-0.63</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>
@@ -17627,7 +17662,7 @@
         <v>0.2220156673456767</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K2" t="n">
         <v>338</v>
@@ -17705,7 +17740,7 @@
         <v>0.181380452144472</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K3" t="n">
         <v>334</v>
@@ -17783,7 +17818,7 @@
         <v>0.08447783039816546</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K4" t="n">
         <v>344</v>
@@ -17861,7 +17896,7 @@
         <v>0.0582252473985127</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K5" t="n">
         <v>337</v>
@@ -17936,28 +17971,28 @@
         <v>0.1105</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1505087994491027</v>
+        <v>0.1166109370539789</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02131620784139332</v>
+        <v>0.01192378700829833</v>
       </c>
       <c r="M6" t="n">
-        <v>6.451174952025452</v>
+        <v>6.61231013253665</v>
       </c>
       <c r="N6" t="n">
-        <v>62.68989893959096</v>
+        <v>68.43473478391492</v>
       </c>
       <c r="O6" t="n">
-        <v>7.917695304796148</v>
+        <v>8.272528923123504</v>
       </c>
       <c r="P6" t="n">
-        <v>384.2888690603645</v>
+        <v>384.5975319978052</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18014,28 +18049,28 @@
         <v>0.1226</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1557288850845574</v>
+        <v>0.1233089753782086</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K7" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02222969255336515</v>
+        <v>0.01233940033197189</v>
       </c>
       <c r="M7" t="n">
-        <v>6.385794208540179</v>
+        <v>6.555697254011758</v>
       </c>
       <c r="N7" t="n">
-        <v>64.55634056269601</v>
+        <v>73.92244956763072</v>
       </c>
       <c r="O7" t="n">
-        <v>8.034696046690005</v>
+        <v>8.597816558151886</v>
       </c>
       <c r="P7" t="n">
-        <v>390.6498001283952</v>
+        <v>390.9481672536011</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18095,7 +18130,7 @@
         <v>-0.06231150774467552</v>
       </c>
       <c r="J8" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K8" t="n">
         <v>307</v>
@@ -18151,7 +18186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35178,10 +35213,41 @@
           <t>-34.81004486991653,173.38838911446922</t>
         </is>
       </c>
-      <c r="F404" t="inlineStr"/>
-      <c r="G404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-34.809428206966935,173.38890217749176</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-34.80875585498722,173.38934745780796</t>
+        </is>
+      </c>
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr"/>
+      <c r="C405" t="inlineStr"/>
+      <c r="D405" t="inlineStr"/>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-34.80932675369597,173.38865490938815</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0022/nzd0022.xlsx
+++ b/data/nzd0022/nzd0022.xlsx
@@ -17650,13 +17650,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.075</v>
+        <v>0.105</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>0.2219888800327449</v>
@@ -17728,13 +17728,13 @@
         <v>0.8330306433390473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.105</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.0366</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1163</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>0.1813816611412573</v>
@@ -17806,13 +17806,13 @@
         <v>0.6662510857140067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.105</v>
+        <v>0.165</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0959</v>
+        <v>0.0969</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1174</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.08448474971937563</v>
@@ -17884,13 +17884,13 @@
         <v>0.4999641685850745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.115</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1017</v>
+        <v>0.1664</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1313</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.05823973710320974</v>
@@ -17962,13 +17962,13 @@
         <v>0.3322341470950024</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0882</v>
+        <v>0.152</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1105</v>
+        <v>0.2</v>
       </c>
       <c r="I6" t="n">
         <v>0.1166109370539791</v>
@@ -18040,13 +18040,13 @@
         <v>0.1663059436880363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.105</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0917</v>
+        <v>0.1782</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1226</v>
+        <v>0.2</v>
       </c>
       <c r="I7" t="n">
         <v>0.1233053148175806</v>
@@ -18118,13 +18118,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07870000000000001</v>
+        <v>0.1582</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I8" t="n">
         <v>-0.06229289239049989</v>
